--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H2">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I2">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J2">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>395.8007408844987</v>
+        <v>166.8457999209144</v>
       </c>
       <c r="R2">
-        <v>3562.206667960488</v>
+        <v>1501.61219928823</v>
       </c>
       <c r="S2">
-        <v>0.01695052481801088</v>
+        <v>0.01088307380350184</v>
       </c>
       <c r="T2">
-        <v>0.0185543871772934</v>
+        <v>0.01162668986652901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H3">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I3">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J3">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>173.996848105975</v>
+        <v>126.1343278268167</v>
       </c>
       <c r="R3">
-        <v>1565.971632953775</v>
+        <v>1135.20895044135</v>
       </c>
       <c r="S3">
-        <v>0.007451572438912298</v>
+        <v>0.008227532245612543</v>
       </c>
       <c r="T3">
-        <v>0.008156641850069384</v>
+        <v>0.008789701100421083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H4">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I4">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J4">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>225.80551334186</v>
+        <v>169.6608779796936</v>
       </c>
       <c r="R4">
-        <v>2032.24962007674</v>
+        <v>1526.947901817242</v>
       </c>
       <c r="S4">
-        <v>0.00967032540007756</v>
+        <v>0.01106669665940133</v>
       </c>
       <c r="T4">
-        <v>0.01058533370086586</v>
+        <v>0.0118228592609939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H5">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I5">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J5">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>110.619161647319</v>
+        <v>37.83792186885034</v>
       </c>
       <c r="R5">
-        <v>663.714969883914</v>
+        <v>227.027531213102</v>
       </c>
       <c r="S5">
-        <v>0.004737365677134015</v>
+        <v>0.002468104659901694</v>
       </c>
       <c r="T5">
-        <v>0.003457077501245182</v>
+        <v>0.001757829816399762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.626383</v>
+        <v>2.628848666666667</v>
       </c>
       <c r="H6">
-        <v>10.879149</v>
+        <v>7.886546000000001</v>
       </c>
       <c r="I6">
-        <v>0.04794321320295086</v>
+        <v>0.04622248078033103</v>
       </c>
       <c r="J6">
-        <v>0.05075107175358264</v>
+        <v>0.04850184447997802</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>213.2686963207867</v>
+        <v>208.1468631837091</v>
       </c>
       <c r="R6">
-        <v>1919.41826688708</v>
+        <v>1873.321768653382</v>
       </c>
       <c r="S6">
-        <v>0.009133424868816105</v>
+        <v>0.01357707341191362</v>
       </c>
       <c r="T6">
-        <v>0.009997631524108805</v>
+        <v>0.01450476443563427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J7">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>2930.758074179009</v>
+        <v>1704.224207278874</v>
       </c>
       <c r="R7">
-        <v>26376.82266761109</v>
+        <v>15338.01786550987</v>
       </c>
       <c r="S7">
-        <v>0.1255123660479805</v>
+        <v>0.1111637082523016</v>
       </c>
       <c r="T7">
-        <v>0.1373883735279936</v>
+        <v>0.1187592755134074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J8">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>1288.382296427017</v>
@@ -948,10 +948,10 @@
         <v>11595.44066784315</v>
       </c>
       <c r="S8">
-        <v>0.05517613747227652</v>
+        <v>0.08403903260247896</v>
       </c>
       <c r="T8">
-        <v>0.06039691564714172</v>
+        <v>0.08978123151546977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J9">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>1672.006297769693</v>
+        <v>1732.978447274278</v>
       </c>
       <c r="R9">
-        <v>15048.05667992724</v>
+        <v>15596.8060254685</v>
       </c>
       <c r="S9">
-        <v>0.07160518240284489</v>
+        <v>0.1130392994639587</v>
       </c>
       <c r="T9">
-        <v>0.07838048039618212</v>
+        <v>0.120763021672632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J10">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>819.0939724678274</v>
+        <v>386.4904146978063</v>
       </c>
       <c r="R10">
-        <v>4914.563834806964</v>
+        <v>2318.942488186838</v>
       </c>
       <c r="S10">
-        <v>0.03507844042325993</v>
+        <v>0.02521012641310729</v>
       </c>
       <c r="T10">
-        <v>0.02559838007679112</v>
+        <v>0.01795511859935967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3550017589220155</v>
+        <v>0.472133375270229</v>
       </c>
       <c r="J11">
-        <v>0.3757929128244233</v>
+        <v>0.4954156322762335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>1579.175805267564</v>
+        <v>2126.088418617573</v>
       </c>
       <c r="R11">
-        <v>14212.58224740808</v>
+        <v>19134.79576755816</v>
       </c>
       <c r="S11">
-        <v>0.06762963257565371</v>
+        <v>0.1386812085383824</v>
       </c>
       <c r="T11">
-        <v>0.07402876317631478</v>
+        <v>0.1481569849753646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H12">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I12">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J12">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>1439.530353815699</v>
+        <v>759.4329281384076</v>
       </c>
       <c r="R12">
-        <v>12955.77318434129</v>
+        <v>6834.896353245669</v>
       </c>
       <c r="S12">
-        <v>0.06164918977691743</v>
+        <v>0.04953654577854179</v>
       </c>
       <c r="T12">
-        <v>0.06748244957418345</v>
+        <v>0.05292126702668323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H13">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I13">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J13">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>632.8278814159751</v>
+        <v>574.1263008460166</v>
       </c>
       <c r="R13">
-        <v>5695.450932743775</v>
+        <v>5167.13670761415</v>
       </c>
       <c r="S13">
-        <v>0.02710142655493659</v>
+        <v>0.03744930293480807</v>
       </c>
       <c r="T13">
-        <v>0.02966576945292973</v>
+        <v>0.0400081299458436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H14">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I14">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J14">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>821.2563973178599</v>
+        <v>772.2463341344243</v>
       </c>
       <c r="R14">
-        <v>7391.307575860739</v>
+        <v>6950.217007209818</v>
       </c>
       <c r="S14">
-        <v>0.03517104822385587</v>
+        <v>0.05037234292294088</v>
       </c>
       <c r="T14">
-        <v>0.03849894048609513</v>
+        <v>0.05381417231839705</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H15">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I15">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J15">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>402.322745907719</v>
+        <v>172.2270732206263</v>
       </c>
       <c r="R15">
-        <v>2413.936475446314</v>
+        <v>1033.362439323758</v>
       </c>
       <c r="S15">
-        <v>0.01722983558373162</v>
+        <v>0.01123408530337381</v>
       </c>
       <c r="T15">
-        <v>0.01257341759243451</v>
+        <v>0.008001123464122224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.189183</v>
+        <v>11.96574466666667</v>
       </c>
       <c r="H16">
-        <v>39.567549</v>
+        <v>35.897234</v>
       </c>
       <c r="I16">
-        <v>0.1743698369812937</v>
+        <v>0.2103911152781009</v>
       </c>
       <c r="J16">
-        <v>0.1845820402324113</v>
+        <v>0.2207661073338543</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>775.6598969127867</v>
+        <v>947.4232007359864</v>
       </c>
       <c r="R16">
-        <v>6980.93907221508</v>
+        <v>8526.808806623876</v>
       </c>
       <c r="S16">
-        <v>0.03321833684185223</v>
+        <v>0.06179883833843632</v>
       </c>
       <c r="T16">
-        <v>0.03636146312676845</v>
+        <v>0.06602141457880817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H17">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I17">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J17">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>1370.252893530445</v>
+        <v>508.9072705107883</v>
       </c>
       <c r="R17">
-        <v>8221.51736118267</v>
+        <v>3053.44362306473</v>
       </c>
       <c r="S17">
-        <v>0.05868231986336003</v>
+        <v>0.03319517414722364</v>
       </c>
       <c r="T17">
-        <v>0.04282323585440969</v>
+        <v>0.0236422173761855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H18">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I18">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J18">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>602.373012363725</v>
+        <v>384.730550738975</v>
       </c>
       <c r="R18">
-        <v>3614.238074182349</v>
+        <v>2308.38330443385</v>
       </c>
       <c r="S18">
-        <v>0.02579716923458438</v>
+        <v>0.0250953334164771</v>
       </c>
       <c r="T18">
-        <v>0.0188254020134349</v>
+        <v>0.01787336090266682</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H19">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I19">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J19">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>781.7333978212598</v>
+        <v>517.4937239417237</v>
       </c>
       <c r="R19">
-        <v>4690.400386927559</v>
+        <v>3104.962343650343</v>
       </c>
       <c r="S19">
-        <v>0.0334784400130874</v>
+        <v>0.03375525421183117</v>
       </c>
       <c r="T19">
-        <v>0.02443078487790479</v>
+        <v>0.02404111676369261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H20">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I20">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J20">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>382.960946430829</v>
+        <v>115.4119165673005</v>
       </c>
       <c r="R20">
-        <v>1531.843785723316</v>
+        <v>461.647666269202</v>
       </c>
       <c r="S20">
-        <v>0.01640064900408814</v>
+        <v>0.007528127207282981</v>
       </c>
       <c r="T20">
-        <v>0.007978880886131825</v>
+        <v>0.00357444768087465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.554453</v>
+        <v>8.018423</v>
       </c>
       <c r="H21">
-        <v>25.108906</v>
+        <v>16.036846</v>
       </c>
       <c r="I21">
-        <v>0.1659782810655758</v>
+        <v>0.1409862072722574</v>
       </c>
       <c r="J21">
-        <v>0.1171326810635613</v>
+        <v>0.09862576223372788</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>738.3312309622532</v>
+        <v>634.8823408105803</v>
       </c>
       <c r="R21">
-        <v>4429.98738577352</v>
+        <v>3809.294044863482</v>
       </c>
       <c r="S21">
-        <v>0.03161970295045586</v>
+        <v>0.04141231828944254</v>
       </c>
       <c r="T21">
-        <v>0.02307437743168006</v>
+        <v>0.02949461951030827</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H22">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I22">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J22">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>2119.273580392895</v>
+        <v>470.2143124419511</v>
       </c>
       <c r="R22">
-        <v>19073.46222353605</v>
+        <v>4231.928811977559</v>
       </c>
       <c r="S22">
-        <v>0.09075980843372757</v>
+        <v>0.03067129689925839</v>
       </c>
       <c r="T22">
-        <v>0.09934752132435594</v>
+        <v>0.03276699793556166</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H23">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I23">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J23">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>931.6478853439918</v>
+        <v>355.4789288224667</v>
       </c>
       <c r="R23">
-        <v>8384.830968095925</v>
+        <v>3199.3103594022</v>
       </c>
       <c r="S23">
-        <v>0.03989866357218121</v>
+        <v>0.02318729881002976</v>
       </c>
       <c r="T23">
-        <v>0.04367388383091345</v>
+        <v>0.02477163501546841</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H24">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I24">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J24">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>1209.051952917153</v>
+        <v>478.1479253618249</v>
       </c>
       <c r="R24">
-        <v>10881.46757625438</v>
+        <v>4303.331328256424</v>
       </c>
       <c r="S24">
-        <v>0.05177874373956071</v>
+        <v>0.03118879326402351</v>
       </c>
       <c r="T24">
-        <v>0.05667805977764444</v>
+        <v>0.03331985366812541</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H25">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I25">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J25">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>592.2987062643864</v>
+        <v>106.6369811180573</v>
       </c>
       <c r="R25">
-        <v>3553.792237586318</v>
+        <v>639.821886708344</v>
       </c>
       <c r="S25">
-        <v>0.02536572796143399</v>
+        <v>0.006955752774361416</v>
       </c>
       <c r="T25">
-        <v>0.01851055911968996</v>
+        <v>0.004954015857157723</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.41708766666667</v>
+        <v>7.408770666666666</v>
       </c>
       <c r="H26">
-        <v>58.251263</v>
+        <v>22.226312</v>
       </c>
       <c r="I26">
-        <v>0.2567069098281642</v>
+        <v>0.1302668213990815</v>
       </c>
       <c r="J26">
-        <v>0.2717412941260215</v>
+        <v>0.1366906536762062</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>1141.924880250218</v>
+        <v>586.6113153898337</v>
       </c>
       <c r="R26">
-        <v>10277.32392225196</v>
+        <v>5279.501838508504</v>
       </c>
       <c r="S26">
-        <v>0.04890396612126072</v>
+        <v>0.03826367965140844</v>
       </c>
       <c r="T26">
-        <v>0.05353127007341777</v>
+        <v>0.04087815119989298</v>
       </c>
     </row>
   </sheetData>
